--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2557519.169598193</v>
+        <v>2661698.804049265</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.5748211465618</v>
+        <v>209.1650676449368</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>71.98153210089518</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>186.6132027016558</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>343.1741797980546</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>334.8161691757869</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>52.2349094828606</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.2136915332308</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>255.438797873001</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>272.2055943652853</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>8.631506887052565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.7909489893192</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.3264904208969</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>102.5041944721329</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>109.1623230749912</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.50276072357057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>131.4244133395511</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>162.7401913819093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>119.456671712837</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>103.2360561910037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552852</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>35.02467705292102</v>
+        <v>13.94435783112456</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>28.5400493088928</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>111.306220275312</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188422</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>129.0096827405959</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.4328070158276</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.82449082152367</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>192.9787615936014</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.52833786981371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>39.56681219551418</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.164517693149</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.5770176220484</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.007612493835</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.018061595818</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.2254824522881</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1848.950422814786</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C5" t="n">
-        <v>1479.987905874375</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1121.722207267624</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1121.722207267624</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>710.7363024780168</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2656.568750250376</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878908</v>
+        <v>2283.102991989296</v>
       </c>
       <c r="Y5" t="n">
-        <v>2235.550262878908</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W7" t="n">
-        <v>1011.535495427162</v>
+        <v>590.80706612517</v>
       </c>
       <c r="X7" t="n">
-        <v>783.5459445291447</v>
+        <v>362.8175152271526</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.7533653856145</v>
+        <v>362.8175152271526</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499502</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.310768559091</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.310768559091</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1209.522515960846</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>798.5366111712387</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>383.4641610162352</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539436</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563624</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.5862204338725</v>
+        <v>759.6890873082294</v>
       </c>
       <c r="C10" t="n">
-        <v>470.5862204338725</v>
+        <v>590.7529043803225</v>
       </c>
       <c r="D10" t="n">
-        <v>320.4695810215368</v>
+        <v>590.7529043803225</v>
       </c>
       <c r="E10" t="n">
-        <v>172.5564874391437</v>
+        <v>442.8398107979294</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>295.949863300019</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>941.3375521384692</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641123</v>
+        <v>941.3375521384692</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2392.08784073087</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2209.233006385774</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1989.631541408715</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1700.556314752913</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.871826547026</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,16 +5594,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543961</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3027.428036214345</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2858.491853286439</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4491.035515984782</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4201.96028932898</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3947.275801123094</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3657.858631086133</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3429.869080188115</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3209.076501044585</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2322.475387565878</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2817.800993781637</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>2817.800993781637</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>3445.398957336244</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3296.6994343069</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3127.763251378994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4471.231687421535</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4216.547199215648</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3927.130029178687</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3699.14047828067</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3478.34789913714</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>3206.505799599951</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>3037.569616672044</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>3388.154264430191</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6782,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6944,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7019,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="G37" t="n">
         <v>2561.485266376193</v>
@@ -7126,19 +7128,19 @@
         <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>4227.652312159533</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953646</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>3052.912304341663</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8179559048574</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E40" t="n">
-        <v>594.8179559048574</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F40" t="n">
-        <v>447.928008406947</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>3234.560769171903</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>3234.560769171903</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755757</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>988.1395539230172</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.570148794804</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.580597896787</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1169.788018753257</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.04875628922476</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.7426266264949</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>142.9753202488367</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>85.98103698773721</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>99.12798163925781</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>45.37941682720867</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>113.5907959652913</v>
+        <v>134.6711151870878</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>257.6444250803513</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038462</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815069</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>36.51445555167291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>7.276848373209589</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>109.4223302771042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>93.20571279564271</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.3036423121236</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790358.7287762788</v>
+        <v>790358.7287762787</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.279752005</v>
@@ -26341,16 +26343,16 @@
         <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520054</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26366,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314464</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26436,13 +26438,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,10 +26453,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.3374207042</v>
+        <v>-870199.337420704</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068885</v>
+        <v>458545.4083068881</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068884</v>
+        <v>458545.4083068888</v>
       </c>
       <c r="E6" t="n">
-        <v>208015.2558689489</v>
+        <v>208015.2558689498</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.7176763045</v>
+        <v>533427.717676304</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763044</v>
+        <v>533427.7176763043</v>
       </c>
       <c r="H6" t="n">
         <v>533427.7176763044</v>
@@ -26546,19 +26548,19 @@
         <v>315896.5152790268</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.7176763042</v>
+        <v>533427.717676304</v>
       </c>
       <c r="L6" t="n">
+        <v>533427.7176763044</v>
+      </c>
+      <c r="M6" t="n">
+        <v>448372.6897407926</v>
+      </c>
+      <c r="N6" t="n">
         <v>533427.7176763045</v>
       </c>
-      <c r="M6" t="n">
-        <v>448372.6897407923</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>533427.7176763044</v>
-      </c>
-      <c r="O6" t="n">
-        <v>533427.7176763047</v>
       </c>
       <c r="P6" t="n">
         <v>533427.7176763043</v>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.1590205169188</v>
+        <v>173.5687740185438</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.37088830894291</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>99.90979563493525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.74754585539887</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>51.42176948026673</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>113.7908987761676</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.3093068033602</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>99.24424374768194</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>22.40217002203514</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>136.7895411358787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>35.23485926970906</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28105,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30460,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286707</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32798,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>229.646348247174</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,10 +33502,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,22 +33739,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>519.7862086120942</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066523</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>91.804909272815</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>388.4444965287609</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2661698.804049265</v>
+        <v>2657686.194035272</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.1650676449368</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>19.34104464821445</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>71.98153210089518</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>280.3582493446717</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>334.8161691757869</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.2349094828606</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>255.438797873001</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>177.2979137777586</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.7909489893192</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>45.10683729225614</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>105.9742079424025</v>
       </c>
       <c r="C13" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>102.5041944721329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>36.43062059490504</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.456671712837</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.92847288552852</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>13.94435783112456</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.306220275312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>218.4328070158276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>192.9787615936014</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>39.56681219551418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149023</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.179586173211</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.0765981364621</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>584.1404152085552</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>434.0237757962194</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>286.1106822138263</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>139.2207347159159</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>139.2207347159159</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>139.2207347159159</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.507193008249</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.517642110232</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.7250629667018</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
         <v>1575.942324366272</v>
@@ -4561,16 +4561,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250376</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989296</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271526</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271526</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271526</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271526</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271526</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621305</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>590.80706612517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271526</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271526</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219476</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279065</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884305</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.87164725941</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283598</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>759.6890873082294</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>590.7529043803225</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>590.7529043803225</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>442.8398107979294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>295.949863300019</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036487</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036487</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384692</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>941.3375521384692</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5597,19 +5597,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5834,19 +5834,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5895,13 +5895,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6311,19 +6311,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>114.9565346495158</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3206.505799599951</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3037.569616672044</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3388.154264430191</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3052.912304341663</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2883.976121413757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3234.560769171903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3234.560769171903</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,58 +7390,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1849.578742244367</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1849.578742244367</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207406</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>73.85777223953482</v>
       </c>
       <c r="C13" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.7426266264949</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0033420516641</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.12798163925781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>134.6711151870878</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038462</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>7.276848373209589</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>93.20571279564271</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790358.7287762787</v>
+        <v>790358.7287762788</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520047</v>
@@ -26334,28 +26334,28 @@
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>5.610093858194886e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314476</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314464</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26438,16 +26438,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.337420704</v>
+        <v>-870199.3374207042</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068881</v>
+        <v>458545.4083068884</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068888</v>
+        <v>458545.4083068883</v>
       </c>
       <c r="E6" t="n">
-        <v>208015.2558689498</v>
+        <v>207667.8766145924</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.717676304</v>
+        <v>533080.3384219471</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763043</v>
+        <v>533080.3384219476</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763044</v>
+        <v>533080.3384219473</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763044</v>
+        <v>533080.3384219472</v>
       </c>
       <c r="J6" t="n">
-        <v>315896.5152790268</v>
+        <v>315549.13602467</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.717676304</v>
+        <v>533080.3384219474</v>
       </c>
       <c r="L6" t="n">
-        <v>533427.7176763044</v>
+        <v>533080.3384219471</v>
       </c>
       <c r="M6" t="n">
-        <v>448372.6897407926</v>
+        <v>448025.3104864356</v>
       </c>
       <c r="N6" t="n">
-        <v>533427.7176763045</v>
+        <v>533080.3384219477</v>
       </c>
       <c r="O6" t="n">
-        <v>533427.7176763044</v>
+        <v>533080.3384219472</v>
       </c>
       <c r="P6" t="n">
-        <v>533427.7176763043</v>
+        <v>533080.3384219476</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.5687740185438</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>345.9318471227931</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.37088830894291</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>68.88271937274135</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.42176948026673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.7908987761676</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>99.24424374768194</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.3098506095619</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35.23485926970906</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>174.4421119839131</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2657686.194035272</v>
+        <v>2659446.724338057</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C2" t="n">
-        <v>19.34104464821445</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>150.2062474346968</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>236.9404504125623</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>280.3582493446717</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.02719212039582</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777586</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.3262788814434</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>45.10683729225614</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.9742079424025</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>73.95046331124178</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>18.66234525555503</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.741330469123</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533245</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,25 +4509,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.942324366272</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="W5" t="n">
-        <v>2726.147254667285</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X5" t="n">
-        <v>2352.681496406205</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1962.542164430393</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177516</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884305</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>732.4676803942466</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>563.5314974663397</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>413.414858054004</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>413.414858054004</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>413.414858054004</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.215744761477</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,22 +5126,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>250.6008040881813</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,16 +5591,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>199.9223080965398</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26441,22 +26441,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.3374207042</v>
+        <v>-870199.3374207041</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068884</v>
+        <v>458545.4083068887</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068883</v>
+        <v>458545.4083068882</v>
       </c>
       <c r="E6" t="n">
-        <v>207667.8766145924</v>
+        <v>207980.5179435135</v>
       </c>
       <c r="F6" t="n">
-        <v>533080.3384219471</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="G6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="H6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="I6" t="n">
-        <v>533080.3384219472</v>
+        <v>533392.9797508684</v>
       </c>
       <c r="J6" t="n">
-        <v>315549.13602467</v>
+        <v>315861.7773535909</v>
       </c>
       <c r="K6" t="n">
-        <v>533080.3384219474</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="L6" t="n">
-        <v>533080.3384219471</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="M6" t="n">
-        <v>448025.3104864356</v>
+        <v>448337.9518153566</v>
       </c>
       <c r="N6" t="n">
-        <v>533080.3384219477</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="O6" t="n">
-        <v>533080.3384219472</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="P6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508683</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C2" t="n">
-        <v>345.9318471227931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>69.34270184147235</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>14.05472154633969</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>68.88271937274135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095619</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>63.69952937758481</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.4421119839131</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
